--- a/target/test-classes/case.xlsx
+++ b/target/test-classes/case.xlsx
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码长度应为6～16个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常登录数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>用户名为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,13 +438,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
@@ -474,10 +474,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -485,13 +485,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -499,13 +499,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
